--- a/results/R_gene_lists/d2_LEC_ova_markers.xlsx
+++ b/results/R_gene_lists/d2_LEC_ova_markers.xlsx
@@ -6,14 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="neg" r:id="rId3" sheetId="1"/>
-    <sheet name="pos" r:id="rId4" sheetId="2"/>
+    <sheet name="high" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>p_val</t>
   </si>
@@ -48,21 +47,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>neg</t>
-  </si>
-  <si>
-    <t>Flt1</t>
-  </si>
-  <si>
-    <t>Gda</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Col15a1</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -78,7 +62,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>pos</t>
+    <t>high</t>
   </si>
   <si>
     <t>Tnc</t>
@@ -185,25 +169,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.216995128372401E-10</v>
+        <v>6.473933517481923E-9</v>
       </c>
       <c r="C2" t="n">
-        <v>1.1642401131283102</v>
+        <v>1.3710277590757916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.279</v>
+        <v>0.777</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006</v>
+        <v>0.326</v>
       </c>
       <c r="F2" t="n">
-        <v>3.8062739634975213E-6</v>
+        <v>2.0247874469276462E-4</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -211,25 +195,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>6.519863868092617E-10</v>
+        <v>4.347942778628945E-8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6148524460398085</v>
+        <v>0.9069879193535383</v>
       </c>
       <c r="D3" t="n">
-        <v>0.233</v>
+        <v>0.624</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>0.163</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0391526233846468E-5</v>
+        <v>0.001359862583443989</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -237,25 +221,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>2.932196535052291E-7</v>
+        <v>5.691599211346354E-8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5852524096411771</v>
+        <v>1.1348573881839645</v>
       </c>
       <c r="D4" t="n">
-        <v>0.163</v>
+        <v>0.592</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>0.116</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009170737883029545</v>
+        <v>0.0017801045693406857</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -263,147 +247,6 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>2.932196535052291E-7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.538242312500446</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.009170737883029545</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6.473933517481923E-9</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.3710277590757916</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.0247874469276462E-4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4.347942778628945E-8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9069879193535383</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.624</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001359862583443989</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5.691599211346354E-8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.1348573881839645</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.592</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0017801045693406857</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
         <v>3.9338356347750937E-7</v>
       </c>
       <c r="C5" t="n">
@@ -419,15 +262,15 @@
         <v>0.012303464331322582</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>4.182153410186505E-7</v>
@@ -445,15 +288,15 @@
         <v>0.013080103005699312</v>
       </c>
       <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>4.213152889680049E-7</v>
@@ -471,15 +314,15 @@
         <v>0.013177056977763321</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>4.6168221547729367E-7</v>
@@ -497,15 +340,15 @@
         <v>0.014439572971267836</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>7.581414044622374E-7</v>
@@ -523,15 +366,15 @@
         <v>0.023711630565960935</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1.5466276684690275E-6</v>
@@ -549,10 +392,10 @@
         <v>0.0483723269590373</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
